--- a/LayoutProgram.xlsx
+++ b/LayoutProgram.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>Field Mask Generation Test</t>
   </si>
@@ -137,24 +137,15 @@
     <t>LUTTestStep12</t>
   </si>
   <si>
-    <t>Fixed Mask Setting Grid8</t>
-  </si>
-  <si>
     <t>Fixed Mask Setting Grid4</t>
   </si>
   <si>
     <t>Data Generation Grid4</t>
   </si>
   <si>
-    <t>Data Generation Grid8</t>
-  </si>
-  <si>
     <t>Source Location Grid4</t>
   </si>
   <si>
-    <t>Source Location Grid8</t>
-  </si>
-  <si>
     <t>Data Processing</t>
   </si>
   <si>
@@ -170,18 +161,12 @@
     <t>Data Selection Grid4</t>
   </si>
   <si>
-    <t>Data Selection Grid8</t>
-  </si>
-  <si>
     <t>LUTTestStep13</t>
   </si>
   <si>
     <t>Info</t>
   </si>
   <si>
-    <t>√</t>
-  </si>
-  <si>
     <t>Laser Power Stability</t>
   </si>
   <si>
@@ -315,6 +300,18 @@
   </si>
   <si>
     <t>SACTestStep13</t>
+  </si>
+  <si>
+    <t>Fixed Mask Setting Grid</t>
+  </si>
+  <si>
+    <t>Data Generation Grid</t>
+  </si>
+  <si>
+    <t>Data Selection Grid</t>
+  </si>
+  <si>
+    <t>Source Location Grid</t>
   </si>
 </sst>
 </file>
@@ -359,7 +356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -396,10 +393,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -410,6 +403,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -714,338 +708,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D3:L18"/>
+  <dimension ref="B3:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="4.85546875" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" customWidth="1"/>
-    <col min="11" max="11" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="I3" t="s">
+      <c r="C3" s="8"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="2" t="s">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="E24" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>5</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>6</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>7</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>8</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>10</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>43</v>
+      </c>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
         <v>12</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
         <v>13</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="1">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3</v>
-      </c>
-      <c r="J8" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="4">
-        <v>4</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="4">
-        <v>4</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" s="1"/>
-    </row>
-    <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="1">
-        <v>5</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="K10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="1">
-        <v>6</v>
-      </c>
-      <c r="J11" t="s">
-        <v>33</v>
-      </c>
-      <c r="K11" t="s">
-        <v>40</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
-        <v>7</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="1">
-        <v>7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" t="s">
-        <v>43</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="4">
-        <v>8</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D14" s="1">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="1">
-        <v>9</v>
-      </c>
-      <c r="J14" t="s">
-        <v>36</v>
-      </c>
-      <c r="K14" t="s">
-        <v>45</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="1">
-        <v>9</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="1">
-        <v>10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="C37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" t="s">
         <v>46</v>
       </c>
-      <c r="L15" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="1">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="1">
-        <v>11</v>
-      </c>
-      <c r="J16" t="s">
-        <v>38</v>
-      </c>
-      <c r="K16" t="s">
-        <v>47</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="1">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="1">
-        <v>12</v>
-      </c>
-      <c r="J17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" t="s">
-        <v>48</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="I18" s="1">
-        <v>13</v>
-      </c>
-      <c r="J18" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="E37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1057,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1069,7 +1089,7 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -1083,8 +1103,8 @@
       <c r="D5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>53</v>
+      <c r="E5" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -1092,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -1103,10 +1123,10 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -1114,20 +1134,20 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1136,7 +1156,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
@@ -1147,10 +1167,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
@@ -1158,10 +1178,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
@@ -1169,10 +1189,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
@@ -1180,7 +1200,7 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -1194,8 +1214,8 @@
       <c r="D19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>53</v>
+      <c r="E19" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
@@ -1203,24 +1223,22 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>54</v>
-      </c>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
@@ -1228,10 +1246,10 @@
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
@@ -1239,10 +1257,10 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
@@ -1250,10 +1268,10 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
@@ -1261,10 +1279,10 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
@@ -1272,10 +1290,10 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
@@ -1283,10 +1301,10 @@
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
@@ -1294,10 +1312,10 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D28" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
@@ -1305,10 +1323,10 @@
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
@@ -1316,10 +1334,10 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
@@ -1327,10 +1345,10 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
@@ -1338,14 +1356,12 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
@@ -1355,7 +1371,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C36" s="3"/>
     </row>
@@ -1369,8 +1385,8 @@
       <c r="D38" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="7" t="s">
-        <v>53</v>
+      <c r="E38" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
@@ -1378,10 +1394,10 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
@@ -1389,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
@@ -1400,21 +1416,21 @@
         <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="8">
+      <c r="B42" s="6">
         <v>4</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>87</v>
+      <c r="C42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
